--- a/contigs_info.xlsx
+++ b/contigs_info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20394"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Genome_YPS1009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\yps1009_nanopore_genomeSeq\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B42611F-F70A-4A95-B6CD-9B5F13EE5D26}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70B42622-5E40-4517-A32F-2F28888407D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6590" xr2:uid="{C0D477C5-0BDA-49E6-81F9-D1EE88BE7F24}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="68">
   <si>
     <t>Query</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>Q-len = contig lenght</t>
+  </si>
+  <si>
+    <t>=</t>
   </si>
 </sst>
 </file>
@@ -242,15 +245,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -258,12 +267,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -578,1029 +605,1106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2C4B3A-FE67-4D82-9030-4481A2C1C20C}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <cols>
     <col min="1" max="1" width="12.40625" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>238733</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <v>7983</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <v>238631</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="3">
         <v>230218</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <v>1678</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="2">
         <v>230217</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A3" t="s">
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <f>D2</f>
+        <v>238733</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3">
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3">
         <v>787458</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="2">
         <v>355</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <v>787130</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="3">
         <v>813184</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <v>5889</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="2">
         <v>813080</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A4" t="s">
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <f>SUM(D3:D4)</f>
+        <v>806390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4">
+      <c r="C4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="3">
         <v>18932</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="2">
         <v>2619</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <v>18596</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="3">
         <v>813184</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <v>800895</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="2">
         <v>813080</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A5" t="s">
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <f>SUM(D5:D6)</f>
+        <v>323485</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="3">
         <v>12529</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="2">
         <v>23</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <v>12518</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>316620</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <v>68</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="2">
         <v>12091</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A6" t="s">
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <f>SUM(D7)</f>
+        <v>1475780</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="3">
         <v>310956</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="2">
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <v>310828</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="3">
         <v>316620</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <v>11</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="2">
         <v>308157</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A7" t="s">
+      <c r="K6">
+        <v>5</v>
+      </c>
+      <c r="L6">
+        <f>SUM(D8)</f>
+        <v>565850</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="3">
         <v>1475780</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2">
         <v>106</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <v>1475750</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="3">
         <v>1531933</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <v>8</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="2">
         <v>1525466</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A8" t="s">
+      <c r="K7">
+        <v>6</v>
+      </c>
+      <c r="L7">
+        <f>SUM(D9:D11)</f>
+        <v>325471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="3">
         <v>565850</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2">
         <v>466</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <v>565415</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="3">
         <v>576874</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <v>44</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="2">
         <v>570294</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A9" t="s">
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9">
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3">
         <v>13603</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="2">
         <v>10738</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="2">
         <v>13602</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="3">
         <v>270161</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="2">
         <v>12588</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="2">
         <v>15475</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A10" t="s">
+      <c r="K9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10">
+      <c r="C10" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="3">
         <v>298309</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="2">
         <v>10724</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <v>289499</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="3">
         <v>270161</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <v>12588</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="2">
         <v>267047</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A11" t="s">
+      <c r="K10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11">
+      <c r="C11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
         <v>13559</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="2">
         <v>9</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="2">
         <v>4803</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="3">
         <v>270161</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="2">
         <v>262262</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="2">
         <v>267052</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A12" t="s">
+      <c r="K11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12">
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
         <v>261087</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="2">
         <v>1953</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="2">
         <v>261078</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="3">
         <v>1090940</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="2">
         <v>6197</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="2">
         <v>248725</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A13" t="s">
+      <c r="K12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C13" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13">
+      <c r="C13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
         <v>804740</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2">
         <v>18</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="2">
         <v>775128</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="3">
         <v>1090940</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="2">
         <v>263242</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
         <v>1076124</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A14" t="s">
+      <c r="K13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14">
+      <c r="C14" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
         <v>532420</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2">
         <v>477</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="2">
         <v>532420</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="3">
         <v>562643</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="2">
         <v>5050</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="2">
         <v>562612</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A15" t="s">
+      <c r="K14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A15" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>428413</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="2">
         <v>533</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="2">
         <v>428151</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="3">
         <v>439888</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="2">
         <v>7246</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="2">
         <v>439888</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A16" t="s">
+      <c r="K15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.75">
+      <c r="A16" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16">
+      <c r="C16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3">
         <v>19815</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="2">
         <v>522</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="2">
         <v>19792</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="3">
         <v>745751</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="2">
         <v>7229</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="2">
         <v>24202</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A17" t="s">
+      <c r="K16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17">
+      <c r="C17" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
         <v>719160</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="2">
         <v>496</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="2">
         <v>718999</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="3">
         <v>745751</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="2">
         <v>7229</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="2">
         <v>745736</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A18" t="s">
+      <c r="K17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18">
+      <c r="C18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="3">
         <v>666745</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2">
         <v>326</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="2">
         <v>662552</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="3">
         <v>666816</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="2">
         <v>139</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="2">
         <v>665420</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A19" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19">
+      <c r="C19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
         <v>29571</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2">
         <v>7</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="2">
         <v>25338</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="3">
         <v>666816</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="2">
         <v>640535</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="2">
         <v>665420</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A20" t="s">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="3">
         <v>25178</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="2">
         <v>6443</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="2">
         <v>25171</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="3">
         <v>1078177</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="2">
         <v>12994</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="2">
         <v>31794</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A21" t="s">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="3">
         <v>445851</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="2">
         <v>6428</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="2">
         <v>445843</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="3">
         <v>1078177</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="2">
         <v>12994</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="2">
         <v>454016</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A22" t="s">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>556212</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="2">
         <v>1</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="2">
         <v>555979</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="3">
         <v>1078177</v>
       </c>
-      <c r="H22">
+      <c r="H22" s="2">
         <v>464861</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="2">
         <v>1065122</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A23" t="s">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23">
+      <c r="C23" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="3">
         <v>444881</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2">
         <v>302</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="2">
         <v>444868</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="3">
         <v>924431</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="2">
         <v>5574</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="2">
         <v>474933</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A24" t="s">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>466854</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2">
         <v>9</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="2">
         <v>466481</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="3">
         <v>924431</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="2">
         <v>5606</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="2">
         <v>917890</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A25" t="s">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C25" t="s">
-        <v>14</v>
-      </c>
-      <c r="D25">
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="3">
         <v>12469</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="2">
         <v>18</v>
       </c>
-      <c r="F25">
+      <c r="F25" s="2">
         <v>12465</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="3">
         <v>784333</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="2">
         <v>34195</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="2">
         <v>46700</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A26" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C26" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26">
+      <c r="C26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D26" s="3">
         <v>728754</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="2">
         <v>17</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="2">
         <v>728736</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="3">
         <v>784333</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="2">
         <v>34195</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="2">
         <v>784332</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A27" t="s">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A27" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D27">
+      <c r="C27" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="3">
         <v>784242</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="2">
         <v>62</v>
       </c>
-      <c r="F27">
+      <c r="F27" s="2">
         <v>784234</v>
       </c>
-      <c r="G27">
+      <c r="G27" s="3">
         <v>1091291</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="2">
         <v>8</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="2">
         <v>792648</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A28" t="s">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A28" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="3">
         <v>1047</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="2">
         <v>1</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="2">
         <v>1043</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="3">
         <v>1091291</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="2">
         <v>793228</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="2">
         <v>794284</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A29" t="s">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A29" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="D29">
+      <c r="C29" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="3">
         <v>8232</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="2">
         <v>2</v>
       </c>
-      <c r="F29">
+      <c r="F29" s="2">
         <v>8231</v>
       </c>
-      <c r="G29">
+      <c r="G29" s="3">
         <v>1091291</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="2">
         <v>798822</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="2">
         <v>807107</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A30" t="s">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A30" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C30" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>273220</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="2">
         <v>7</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="2">
         <v>268995</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="3">
         <v>1091291</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="2">
         <v>808204</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="2">
         <v>1083728</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A31" t="s">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A31" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C31" t="s">
-        <v>14</v>
-      </c>
-      <c r="D31">
+      <c r="C31" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="3">
         <v>197882</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="2">
         <v>5219</v>
       </c>
-      <c r="F31">
+      <c r="F31" s="2">
         <v>197879</v>
       </c>
-      <c r="G31">
+      <c r="G31" s="3">
         <v>948066</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="2">
         <v>7410</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="2">
         <v>198250</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A32" t="s">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.75">
+      <c r="A32" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C32" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>717035</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="2">
         <v>29</v>
       </c>
-      <c r="F32">
+      <c r="F32" s="2">
         <v>716375</v>
       </c>
-      <c r="G32">
+      <c r="G32" s="3">
         <v>948066</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="2">
         <v>198313</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="2">
         <v>942736</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A33" t="s">
+      <c r="A33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>3582</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G33" t="s">
+      <c r="G33" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H33" t="s">
+      <c r="H33" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A34" t="s">
+      <c r="A34" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C34" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>3610</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="G34" t="s">
+      <c r="G34" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="H34" t="s">
+      <c r="H34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.75">
-      <c r="A35" t="s">
+      <c r="A35" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>105536</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="2">
         <v>34</v>
       </c>
-      <c r="F35">
+      <c r="F35" s="2">
         <v>105342</v>
       </c>
-      <c r="G35">
+      <c r="G35" s="3">
         <v>85779</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="2">
         <v>1</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="2">
         <v>85775</v>
       </c>
     </row>
